--- a/data/league_data/spain/20/spain_passing.xlsx
+++ b/data/league_data/spain/20/spain_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BE39D2-5294-5B4A-AADF-F61D746184CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30433E3C-CDB9-F545-B83F-BFB34EDDF66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="584">
   <si>
     <t>Rk</t>
   </si>
@@ -1766,12 +1766,18 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2629,14 +2635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2666,7 +2672,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5702,7 +5708,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6622,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6806,7 +6812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6990,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7266,7 +7272,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7358,7 +7364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7910,7 +7916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8094,7 +8100,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8186,7 +8192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8462,7 +8468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8554,7 +8560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8830,7 +8836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9106,7 +9112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9198,7 +9204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9750,7 +9756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9934,7 +9940,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10026,7 +10032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10394,7 +10400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10578,7 +10584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10670,7 +10676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10762,7 +10768,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10854,7 +10860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11038,7 +11044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11130,7 +11136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11222,7 +11228,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11314,7 +11320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11406,7 +11412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11498,7 +11504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11590,7 +11596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11682,7 +11688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11774,7 +11780,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11866,7 +11872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11958,7 +11964,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12050,7 +12056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12142,7 +12148,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12234,7 +12240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12510,7 +12516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12602,7 +12608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12786,7 +12792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12878,7 +12884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -12970,7 +12976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13062,7 +13068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13154,7 +13160,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13246,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13338,7 +13344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13430,7 +13436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13522,7 +13528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13614,7 +13620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13706,7 +13712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13890,7 +13896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -13982,7 +13988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14074,7 +14080,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14166,7 +14172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14258,7 +14264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14442,7 +14448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14534,7 +14540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14626,7 +14632,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14810,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14902,7 +14908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -14994,7 +15000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15086,7 +15092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15178,7 +15184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15270,7 +15276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15454,7 +15460,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15546,7 +15552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15638,7 +15644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15730,7 +15736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15822,7 +15828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15914,7 +15920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16098,7 +16104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16190,7 +16196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16282,7 +16288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16374,7 +16380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16466,7 +16472,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16558,7 +16564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16650,7 +16656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16742,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16834,7 +16840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16926,7 +16932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17018,7 +17024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17110,7 +17116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -17202,7 +17208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -17294,7 +17300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -17386,7 +17392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -17478,7 +17484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -17570,7 +17576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17846,7 +17852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -17938,7 +17944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -18030,7 +18036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -18122,7 +18128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -18306,7 +18312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18398,7 +18404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -18490,7 +18496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -18582,7 +18588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -18674,7 +18680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -18766,7 +18772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -18858,7 +18864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -18950,7 +18956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -19042,7 +19048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -19134,7 +19140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -19226,7 +19232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -19318,7 +19324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -19410,7 +19416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -19502,7 +19508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -19594,7 +19600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -19686,7 +19692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -19778,7 +19784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -19870,7 +19876,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -19962,7 +19968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20054,7 +20060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20146,7 +20152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20238,7 +20244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20330,7 +20336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -20422,7 +20428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -20514,7 +20520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -20606,7 +20612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -20698,7 +20704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -20790,7 +20796,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -20882,7 +20888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -20974,7 +20980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -21066,7 +21072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -21158,7 +21164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -21250,7 +21256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -21342,7 +21348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -21434,7 +21440,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -21526,7 +21532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -21618,7 +21624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -21710,7 +21716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -21802,7 +21808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -21894,7 +21900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -21986,7 +21992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -22078,7 +22084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -22170,7 +22176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -22262,7 +22268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -22354,7 +22360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -22446,7 +22452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -22538,7 +22544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -22630,7 +22636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -22722,7 +22728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -22814,7 +22820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -22906,7 +22912,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -22998,7 +23004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -23090,7 +23096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -23182,7 +23188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -23274,7 +23280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -23366,7 +23372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -23458,7 +23464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -23550,7 +23556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -23642,7 +23648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -23734,7 +23740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -23826,7 +23832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -23918,7 +23924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -24010,7 +24016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -24102,7 +24108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -24194,7 +24200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -24286,7 +24292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -24378,7 +24384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -24470,7 +24476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -24562,7 +24568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -24654,7 +24660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -24746,7 +24752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -24838,7 +24844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -24930,7 +24936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -25022,7 +25028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -25114,7 +25120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -25206,7 +25212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -25298,7 +25304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -25390,7 +25396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -25482,7 +25488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -25574,7 +25580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -25666,7 +25672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -25758,7 +25764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -25850,7 +25856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -25942,7 +25948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -26034,7 +26040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -26126,7 +26132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -26218,7 +26224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -26310,7 +26316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -26402,7 +26408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -26494,7 +26500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -26586,7 +26592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -26678,7 +26684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -26770,7 +26776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -26862,7 +26868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -26954,7 +26960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -27046,7 +27052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27138,7 +27144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -27230,7 +27236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -27322,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -27414,7 +27420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -27506,7 +27512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -27598,7 +27604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -27690,7 +27696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -27782,7 +27788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -27874,7 +27880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -27966,7 +27972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -28058,7 +28064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -28150,7 +28156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -28242,7 +28248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -28334,7 +28340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -28426,7 +28432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -28518,7 +28524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -28610,7 +28616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -28702,7 +28708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -28794,7 +28800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -28886,7 +28892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -28978,7 +28984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -29070,7 +29076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -29162,7 +29168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -29254,7 +29260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -29346,7 +29352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -29438,7 +29444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -29530,7 +29536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -29622,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -29714,7 +29720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -29806,7 +29812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -29898,7 +29904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -29990,7 +29996,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -30082,7 +30088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -30174,7 +30180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -30266,7 +30272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -30358,7 +30364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -30450,7 +30456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -30542,7 +30548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -30634,7 +30640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -30726,7 +30732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -30818,7 +30824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -30910,7 +30916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -31002,7 +31008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -31094,7 +31100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -31186,7 +31192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -31278,7 +31284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -31370,7 +31376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -31462,7 +31468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -31554,7 +31560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -31646,7 +31652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -31738,7 +31744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -31830,7 +31836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -31922,7 +31928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -32014,7 +32020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -32106,7 +32112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -32198,7 +32204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -32290,7 +32296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -32382,7 +32388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -32474,7 +32480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -32566,7 +32572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -32658,7 +32664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -32750,7 +32756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -32842,7 +32848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -32934,7 +32940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -33026,7 +33032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -33118,7 +33124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -33210,7 +33216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -33302,7 +33308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -33394,7 +33400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -33486,7 +33492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -33578,7 +33584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -33670,7 +33676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -33762,7 +33768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -33854,7 +33860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -33946,7 +33952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -34038,7 +34044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -34130,7 +34136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -34222,7 +34228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -34314,7 +34320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -34406,7 +34412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -34498,7 +34504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -34590,7 +34596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -34682,7 +34688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -34774,7 +34780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -34866,7 +34872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -34958,7 +34964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -35050,7 +35056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -35142,7 +35148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -35234,7 +35240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -35326,7 +35332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -35418,7 +35424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -35510,7 +35516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -35602,7 +35608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -35694,7 +35700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -35786,7 +35792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -35878,7 +35884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -35970,7 +35976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -36062,7 +36068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -36154,7 +36160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -36246,7 +36252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -36338,7 +36344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -36430,7 +36436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -36522,7 +36528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -36614,7 +36620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -36706,7 +36712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -36798,7 +36804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -36890,7 +36896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -36982,7 +36988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -37074,7 +37080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -37166,7 +37172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -37258,7 +37264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -37350,7 +37356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -37442,7 +37448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -37534,7 +37540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -37626,7 +37632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -37718,7 +37724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -37810,7 +37816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -37902,7 +37908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -37994,7 +38000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -38086,7 +38092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -38178,7 +38184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -38270,7 +38276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -38362,7 +38368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -38454,7 +38460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -38546,7 +38552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -38638,7 +38644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -38730,7 +38736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -38822,7 +38828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -38914,7 +38920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -39006,7 +39012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -39098,7 +39104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -39190,7 +39196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -39282,7 +39288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -39374,7 +39380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -39466,7 +39472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -39558,7 +39564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -39650,7 +39656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -39742,7 +39748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -39834,7 +39840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -39926,7 +39932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -40018,7 +40024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -40110,7 +40116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -40202,7 +40208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -40294,7 +40300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -40386,12 +40392,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>273</v>
+        <v>582</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>21</v>
@@ -40478,7 +40484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -40570,7 +40576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -40662,7 +40668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -40754,7 +40760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -40846,7 +40852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -40938,7 +40944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -41030,7 +41036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -41122,7 +41128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -41214,7 +41220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -41306,7 +41312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -41398,7 +41404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -41490,7 +41496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -41582,7 +41588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -41674,7 +41680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -41766,7 +41772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -41858,7 +41864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -41950,7 +41956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -42042,7 +42048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -42134,7 +42140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -42226,7 +42232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -42318,7 +42324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -42410,7 +42416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -42502,7 +42508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -42594,7 +42600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -42686,7 +42692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -42778,7 +42784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -42870,7 +42876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -42962,7 +42968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -43054,7 +43060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -43146,7 +43152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -43238,7 +43244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -43330,7 +43336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -43422,7 +43428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -43514,7 +43520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -43606,7 +43612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -43698,7 +43704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -43790,7 +43796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -43882,7 +43888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -43974,7 +43980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -44066,7 +44072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -44158,7 +44164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -44250,7 +44256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -44342,7 +44348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -44434,7 +44440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -44526,7 +44532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -44618,7 +44624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -44710,7 +44716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -44802,12 +44808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>110</v>
+        <v>583</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>21</v>
@@ -44894,7 +44900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -44986,7 +44992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -45078,7 +45084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -45170,7 +45176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -45262,7 +45268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -45354,7 +45360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -45446,7 +45452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -45538,7 +45544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -45630,7 +45636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -45722,7 +45728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -45814,7 +45820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -45906,7 +45912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -45998,7 +46004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -46090,7 +46096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -46182,7 +46188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -46274,7 +46280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -46366,7 +46372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -46458,7 +46464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -46550,7 +46556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -46642,7 +46648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -46734,7 +46740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -46826,7 +46832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -46918,7 +46924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -47010,7 +47016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -47102,7 +47108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -47194,7 +47200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -47286,7 +47292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -47378,7 +47384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -47470,7 +47476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -47562,7 +47568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -47654,7 +47660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -47746,7 +47752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -47838,7 +47844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -47930,7 +47936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -48022,7 +48028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -48114,7 +48120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -48206,7 +48212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -48298,7 +48304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -48390,7 +48396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -48482,7 +48488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -48574,7 +48580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -48666,7 +48672,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/20/spain_passing.xlsx
+++ b/data/league_data/spain/20/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30433E3C-CDB9-F545-B83F-BFB34EDDF66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9858A74-E7E3-A545-A984-E3B76167660E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="585">
   <si>
     <t>Rk</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1772,6 +1769,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="B459" sqref="B459"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27149,7 +27152,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>352</v>
+        <v>584</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>69</v>
@@ -27241,7 +27244,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>21</v>
@@ -27333,7 +27336,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>21</v>
@@ -27425,7 +27428,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>69</v>
@@ -27517,7 +27520,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>21</v>
@@ -27609,7 +27612,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>21</v>
@@ -27701,7 +27704,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>69</v>
@@ -27793,7 +27796,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>101</v>
@@ -27885,7 +27888,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>108</v>
@@ -27977,7 +27980,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>59</v>
@@ -28069,7 +28072,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>21</v>
@@ -28161,7 +28164,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>21</v>
@@ -28253,7 +28256,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>337</v>
@@ -28345,7 +28348,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>21</v>
@@ -28437,13 +28440,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>120</v>
@@ -28529,7 +28532,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>21</v>
@@ -28621,7 +28624,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>108</v>
@@ -28713,7 +28716,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>54</v>
@@ -28805,7 +28808,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>21</v>
@@ -28897,7 +28900,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>21</v>
@@ -28989,7 +28992,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>108</v>
@@ -29081,7 +29084,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>21</v>
@@ -29173,7 +29176,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>21</v>
@@ -29265,7 +29268,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>21</v>
@@ -29357,7 +29360,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>69</v>
@@ -29449,7 +29452,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>69</v>
@@ -29541,7 +29544,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>21</v>
@@ -29633,7 +29636,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>77</v>
@@ -29725,7 +29728,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>21</v>
@@ -29817,7 +29820,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>382</v>
+        <v>583</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>21</v>
@@ -29909,7 +29912,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>104</v>
@@ -30001,7 +30004,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>108</v>
@@ -30093,7 +30096,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>62</v>
@@ -30185,7 +30188,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>21</v>
@@ -30277,7 +30280,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>108</v>
@@ -30369,10 +30372,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>81</v>
@@ -30461,7 +30464,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>21</v>
@@ -30553,7 +30556,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>21</v>
@@ -30645,7 +30648,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>202</v>
@@ -30737,7 +30740,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>77</v>
@@ -30829,7 +30832,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>21</v>
@@ -30921,7 +30924,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>21</v>
@@ -31013,7 +31016,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>21</v>
@@ -31105,7 +31108,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>21</v>
@@ -31197,13 +31200,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>43</v>
@@ -31289,7 +31292,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>69</v>
@@ -31381,7 +31384,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>108</v>
@@ -31473,7 +31476,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>21</v>
@@ -31565,7 +31568,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>21</v>
@@ -31657,7 +31660,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>69</v>
@@ -31841,7 +31844,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>21</v>
@@ -31933,7 +31936,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>21</v>
@@ -32025,7 +32028,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>149</v>
@@ -32117,7 +32120,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>21</v>
@@ -32209,7 +32212,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>21</v>
@@ -32301,7 +32304,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>21</v>
@@ -32393,7 +32396,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>21</v>
@@ -32485,7 +32488,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>62</v>
@@ -32577,7 +32580,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>21</v>
@@ -32669,7 +32672,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>108</v>
@@ -32761,7 +32764,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>21</v>
@@ -32853,10 +32856,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>51</v>
@@ -32945,7 +32948,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>21</v>
@@ -33037,7 +33040,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>62</v>
@@ -33129,7 +33132,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>21</v>
@@ -33221,7 +33224,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>59</v>
@@ -33313,7 +33316,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>21</v>
@@ -33405,7 +33408,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>129</v>
@@ -33497,7 +33500,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>21</v>
@@ -33589,7 +33592,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>21</v>
@@ -33681,7 +33684,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>21</v>
@@ -33773,7 +33776,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>67</v>
@@ -33865,7 +33868,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>21</v>
@@ -33957,7 +33960,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>21</v>
@@ -34049,7 +34052,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>21</v>
@@ -34141,7 +34144,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>59</v>
@@ -34233,7 +34236,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>21</v>
@@ -34325,7 +34328,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>21</v>
@@ -34417,7 +34420,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>67</v>
@@ -34509,7 +34512,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>54</v>
@@ -34601,7 +34604,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>21</v>
@@ -34693,7 +34696,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>21</v>
@@ -34877,7 +34880,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>21</v>
@@ -34969,7 +34972,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>54</v>
@@ -35061,7 +35064,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>21</v>
@@ -35153,7 +35156,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>21</v>
@@ -35245,7 +35248,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>62</v>
@@ -35337,7 +35340,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>21</v>
@@ -35429,10 +35432,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>28</v>
@@ -35521,10 +35524,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>31</v>
@@ -35613,7 +35616,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>21</v>
@@ -35705,7 +35708,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>21</v>
@@ -35797,7 +35800,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>21</v>
@@ -35889,7 +35892,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>21</v>
@@ -35981,7 +35984,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>21</v>
@@ -36073,7 +36076,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>21</v>
@@ -36165,7 +36168,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>21</v>
@@ -36257,7 +36260,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>123</v>
@@ -36349,7 +36352,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>21</v>
@@ -36441,7 +36444,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>21</v>
@@ -36533,7 +36536,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>202</v>
@@ -36625,7 +36628,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>21</v>
@@ -36717,7 +36720,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>21</v>
@@ -36809,7 +36812,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>62</v>
@@ -36901,7 +36904,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>59</v>
@@ -36993,7 +36996,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>21</v>
@@ -37085,7 +37088,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>77</v>
@@ -37177,7 +37180,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>21</v>
@@ -37269,13 +37272,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>84</v>
@@ -37361,7 +37364,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>204</v>
@@ -37453,7 +37456,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>69</v>
@@ -37545,7 +37548,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>239</v>
@@ -37637,7 +37640,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>108</v>
@@ -37729,7 +37732,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>21</v>
@@ -37821,7 +37824,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>21</v>
@@ -37913,7 +37916,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>21</v>
@@ -38005,7 +38008,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>67</v>
@@ -38097,7 +38100,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>21</v>
@@ -38189,7 +38192,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>21</v>
@@ -38281,13 +38284,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>84</v>
@@ -38373,7 +38376,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>216</v>
@@ -38465,7 +38468,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>21</v>
@@ -38557,7 +38560,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>21</v>
@@ -38649,7 +38652,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>21</v>
@@ -38741,7 +38744,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>21</v>
@@ -38833,7 +38836,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>337</v>
@@ -38925,7 +38928,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>21</v>
@@ -39017,7 +39020,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>21</v>
@@ -39109,10 +39112,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>28</v>
@@ -39201,7 +39204,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>21</v>
@@ -39293,7 +39296,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>21</v>
@@ -39385,7 +39388,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>21</v>
@@ -39477,7 +39480,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>21</v>
@@ -39569,7 +39572,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>21</v>
@@ -39661,7 +39664,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>21</v>
@@ -39753,7 +39756,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>21</v>
@@ -39845,7 +39848,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>21</v>
@@ -39937,10 +39940,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>28</v>
@@ -40029,7 +40032,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>108</v>
@@ -40121,7 +40124,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>104</v>
@@ -40213,10 +40216,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>51</v>
@@ -40305,7 +40308,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>21</v>
@@ -40397,7 +40400,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>21</v>
@@ -40489,7 +40492,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>54</v>
@@ -40581,7 +40584,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>59</v>
@@ -40673,7 +40676,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>21</v>
@@ -40765,7 +40768,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>202</v>
@@ -40857,7 +40860,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>21</v>
@@ -41041,7 +41044,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>21</v>
@@ -41133,7 +41136,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>337</v>
@@ -41225,7 +41228,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>21</v>
@@ -41317,7 +41320,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>21</v>
@@ -41409,7 +41412,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>21</v>
@@ -41501,7 +41504,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>21</v>
@@ -41593,13 +41596,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>32</v>
@@ -41685,7 +41688,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>21</v>
@@ -41777,7 +41780,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>62</v>
@@ -41869,13 +41872,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>60</v>
@@ -41961,7 +41964,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>62</v>
@@ -42053,7 +42056,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>21</v>
@@ -42145,10 +42148,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>81</v>
@@ -42237,7 +42240,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>21</v>
@@ -42329,7 +42332,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>123</v>
@@ -42421,7 +42424,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>104</v>
@@ -42513,7 +42516,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>21</v>
@@ -42605,7 +42608,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>21</v>
@@ -42697,7 +42700,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>21</v>
@@ -42789,7 +42792,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>21</v>
@@ -42881,7 +42884,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>224</v>
@@ -42973,7 +42976,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>21</v>
@@ -43065,7 +43068,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>21</v>
@@ -43157,7 +43160,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>21</v>
@@ -43249,7 +43252,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>21</v>
@@ -43341,7 +43344,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>21</v>
@@ -43433,7 +43436,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>21</v>
@@ -43525,7 +43528,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>21</v>
@@ -43617,7 +43620,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>21</v>
@@ -43709,7 +43712,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>67</v>
@@ -43801,7 +43804,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>62</v>
@@ -43893,7 +43896,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>21</v>
@@ -43985,7 +43988,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>21</v>
@@ -44077,7 +44080,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>21</v>
@@ -44169,7 +44172,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>59</v>
@@ -44261,7 +44264,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>21</v>
@@ -44353,7 +44356,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>21</v>
@@ -44445,7 +44448,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>21</v>
@@ -44537,7 +44540,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>21</v>
@@ -44629,7 +44632,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>21</v>
@@ -44721,7 +44724,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>21</v>
@@ -44813,7 +44816,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>21</v>
@@ -44905,7 +44908,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>21</v>
@@ -44997,7 +45000,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>21</v>
@@ -45089,7 +45092,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>67</v>
@@ -45181,13 +45184,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>60</v>
@@ -45273,7 +45276,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>21</v>
@@ -45365,7 +45368,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>21</v>
@@ -45457,7 +45460,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>202</v>
@@ -45549,7 +45552,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>21</v>
@@ -45641,7 +45644,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>21</v>
@@ -45733,7 +45736,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>21</v>
@@ -45825,7 +45828,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>21</v>
@@ -45917,7 +45920,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>108</v>
@@ -46009,7 +46012,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>69</v>
@@ -46101,7 +46104,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>149</v>
@@ -46193,7 +46196,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>21</v>
@@ -46285,7 +46288,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>337</v>
@@ -46469,7 +46472,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>21</v>
@@ -46561,7 +46564,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>21</v>
@@ -46653,7 +46656,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>21</v>
@@ -46745,7 +46748,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>337</v>
@@ -46837,7 +46840,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>21</v>
@@ -46929,7 +46932,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>21</v>
@@ -47021,7 +47024,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>69</v>
@@ -47113,7 +47116,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>21</v>
@@ -47205,7 +47208,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>21</v>
@@ -47297,7 +47300,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>21</v>
@@ -47389,7 +47392,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>21</v>
@@ -47481,7 +47484,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>21</v>
@@ -47573,7 +47576,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>21</v>
@@ -47665,7 +47668,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>21</v>
@@ -47757,7 +47760,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>62</v>
@@ -47849,7 +47852,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>69</v>
@@ -47941,7 +47944,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>21</v>
@@ -48033,10 +48036,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>49</v>
@@ -48125,7 +48128,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>21</v>
@@ -48217,7 +48220,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>21</v>
@@ -48309,7 +48312,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>59</v>
@@ -48401,7 +48404,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>21</v>
@@ -48493,7 +48496,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>21</v>
@@ -48585,7 +48588,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>21</v>

--- a/data/league_data/spain/20/spain_passing.xlsx
+++ b/data/league_data/spain/20/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9858A74-E7E3-A545-A984-E3B76167660E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7F1A6-15A2-5240-A9F6-CE7D749A48B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,9 +358,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1775,6 +1772,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2641,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7464,7 +7464,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>112</v>
+        <v>584</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>69</v>
@@ -7556,7 +7556,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>62</v>
@@ -7648,7 +7648,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>21</v>
@@ -7740,7 +7740,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>69</v>
@@ -7832,7 +7832,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>21</v>
@@ -7924,7 +7924,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>21</v>
@@ -7933,7 +7933,7 @@
         <v>31</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="3">
         <v>29</v>
@@ -8016,7 +8016,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>108</v>
@@ -8025,7 +8025,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" s="3">
         <v>25</v>
@@ -8108,7 +8108,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>21</v>
@@ -8200,10 +8200,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>31</v>
@@ -8292,7 +8292,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>21</v>
@@ -8384,7 +8384,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>21</v>
@@ -8476,7 +8476,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>108</v>
@@ -8568,7 +8568,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>21</v>
@@ -8660,13 +8660,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>86</v>
@@ -8752,7 +8752,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>101</v>
@@ -8844,7 +8844,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>21</v>
@@ -8936,7 +8936,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>21</v>
@@ -9028,7 +9028,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>21</v>
@@ -9037,7 +9037,7 @@
         <v>28</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F70" s="3">
         <v>27</v>
@@ -9120,7 +9120,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>21</v>
@@ -9129,7 +9129,7 @@
         <v>28</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F71" s="3">
         <v>23</v>
@@ -9212,7 +9212,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>21</v>
@@ -9304,7 +9304,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>69</v>
@@ -9396,7 +9396,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>21</v>
@@ -9488,7 +9488,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>42</v>
@@ -9580,7 +9580,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>21</v>
@@ -9589,7 +9589,7 @@
         <v>28</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F76" s="3">
         <v>29</v>
@@ -9672,7 +9672,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>21</v>
@@ -9764,7 +9764,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>62</v>
@@ -9856,7 +9856,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>21</v>
@@ -9948,10 +9948,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>28</v>
@@ -10040,7 +10040,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>59</v>
@@ -10132,7 +10132,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>67</v>
@@ -10224,10 +10224,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>49</v>
@@ -10316,10 +10316,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>28</v>
@@ -10408,7 +10408,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>21</v>
@@ -10500,7 +10500,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>21</v>
@@ -10592,7 +10592,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>62</v>
@@ -10684,7 +10684,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>101</v>
@@ -10776,7 +10776,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>21</v>
@@ -10868,10 +10868,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>49</v>
@@ -10960,13 +10960,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>52</v>
@@ -11052,7 +11052,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>21</v>
@@ -11144,7 +11144,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>21</v>
@@ -11236,7 +11236,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>101</v>
@@ -11328,7 +11328,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>21</v>
@@ -11420,7 +11420,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>21</v>
@@ -11429,7 +11429,7 @@
         <v>31</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F96" s="3">
         <v>30</v>
@@ -11512,7 +11512,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>21</v>
@@ -11604,7 +11604,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>21</v>
@@ -11696,7 +11696,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>108</v>
@@ -11788,13 +11788,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>45</v>
@@ -11880,7 +11880,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>21</v>
@@ -11972,7 +11972,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>21</v>
@@ -11981,7 +11981,7 @@
         <v>22</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F102" s="3">
         <v>35</v>
@@ -12064,7 +12064,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>21</v>
@@ -12156,7 +12156,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>62</v>
@@ -12248,13 +12248,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>23</v>
@@ -12340,7 +12340,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>62</v>
@@ -12432,7 +12432,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>69</v>
@@ -12524,7 +12524,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>21</v>
@@ -12616,10 +12616,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>51</v>
@@ -12708,7 +12708,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>21</v>
@@ -12800,7 +12800,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>21</v>
@@ -12892,7 +12892,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>21</v>
@@ -12984,10 +12984,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>49</v>
@@ -13076,7 +13076,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>21</v>
@@ -13168,7 +13168,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>21</v>
@@ -13177,7 +13177,7 @@
         <v>22</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F115" s="3">
         <v>27</v>
@@ -13260,7 +13260,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>21</v>
@@ -13352,13 +13352,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>43</v>
@@ -13444,10 +13444,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>31</v>
@@ -13536,7 +13536,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>21</v>
@@ -13628,7 +13628,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>21</v>
@@ -13720,7 +13720,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>21</v>
@@ -13812,7 +13812,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>21</v>
@@ -13904,7 +13904,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>21</v>
@@ -13996,7 +13996,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>62</v>
@@ -14088,10 +14088,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>51</v>
@@ -14180,7 +14180,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>21</v>
@@ -14272,7 +14272,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>21</v>
@@ -14364,7 +14364,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>21</v>
@@ -14456,10 +14456,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>28</v>
@@ -14548,10 +14548,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>49</v>
@@ -14640,7 +14640,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>21</v>
@@ -14732,7 +14732,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>21</v>
@@ -14824,7 +14824,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>21</v>
@@ -14916,7 +14916,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>54</v>
@@ -15008,7 +15008,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>21</v>
@@ -15100,7 +15100,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>21</v>
@@ -15192,7 +15192,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>21</v>
@@ -15284,7 +15284,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>21</v>
@@ -15293,7 +15293,7 @@
         <v>49</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F138" s="3">
         <v>30</v>
@@ -15376,7 +15376,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>21</v>
@@ -15468,7 +15468,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>21</v>
@@ -15560,10 +15560,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>51</v>
@@ -15652,7 +15652,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>21</v>
@@ -15744,7 +15744,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>21</v>
@@ -15753,7 +15753,7 @@
         <v>49</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F143" s="3">
         <v>29</v>
@@ -15836,7 +15836,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>67</v>
@@ -15928,7 +15928,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>21</v>
@@ -16020,10 +16020,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>81</v>
@@ -16112,7 +16112,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>69</v>
@@ -16121,7 +16121,7 @@
         <v>28</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F147" s="3">
         <v>25</v>
@@ -16204,10 +16204,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>49</v>
@@ -16296,10 +16296,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>49</v>
@@ -16388,7 +16388,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>69</v>
@@ -16480,7 +16480,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>69</v>
@@ -16572,7 +16572,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>21</v>
@@ -16581,7 +16581,7 @@
         <v>28</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F152" s="3">
         <v>23</v>
@@ -16664,10 +16664,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>22</v>
@@ -16756,7 +16756,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>21</v>
@@ -16848,7 +16848,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>59</v>
@@ -16940,7 +16940,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>59</v>
@@ -17032,7 +17032,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>21</v>
@@ -17124,7 +17124,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>108</v>
@@ -17216,7 +17216,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>21</v>
@@ -17308,10 +17308,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>31</v>
@@ -17400,10 +17400,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>51</v>
@@ -17492,7 +17492,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>104</v>
@@ -17584,7 +17584,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>21</v>
@@ -17676,7 +17676,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>21</v>
@@ -17685,7 +17685,7 @@
         <v>49</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F164" s="3">
         <v>30</v>
@@ -17768,7 +17768,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>21</v>
@@ -17860,7 +17860,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>69</v>
@@ -17952,16 +17952,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F167" s="3">
         <v>22</v>
@@ -18044,10 +18044,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>49</v>
@@ -18136,7 +18136,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>67</v>
@@ -18228,7 +18228,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>21</v>
@@ -18320,7 +18320,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>54</v>
@@ -18412,10 +18412,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>28</v>
@@ -18504,10 +18504,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>28</v>
@@ -18596,7 +18596,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>21</v>
@@ -18605,7 +18605,7 @@
         <v>49</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F174" s="3">
         <v>33</v>
@@ -18688,10 +18688,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>49</v>
@@ -18780,7 +18780,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>21</v>
@@ -18872,10 +18872,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>51</v>
@@ -18964,7 +18964,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>21</v>
@@ -19056,7 +19056,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>21</v>
@@ -19148,16 +19148,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F180" s="3">
         <v>28</v>
@@ -19240,16 +19240,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F181" s="3">
         <v>25</v>
@@ -19332,7 +19332,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>21</v>
@@ -19424,7 +19424,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>21</v>
@@ -19516,7 +19516,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>21</v>
@@ -19525,7 +19525,7 @@
         <v>51</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F184" s="3">
         <v>21</v>
@@ -19608,16 +19608,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F185" s="3">
         <v>30</v>
@@ -19700,7 +19700,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>62</v>
@@ -19792,7 +19792,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>21</v>
@@ -19884,7 +19884,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>67</v>
@@ -19976,7 +19976,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>21</v>
@@ -20068,7 +20068,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>21</v>
@@ -20077,7 +20077,7 @@
         <v>28</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -20160,7 +20160,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>21</v>
@@ -20252,7 +20252,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>21</v>
@@ -20344,7 +20344,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>21</v>
@@ -20436,7 +20436,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>67</v>
@@ -20528,16 +20528,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F195" s="3">
         <v>25</v>
@@ -20620,7 +20620,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>21</v>
@@ -20712,16 +20712,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F197" s="3">
         <v>30</v>
@@ -20804,7 +20804,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>21</v>
@@ -20896,7 +20896,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>21</v>
@@ -20988,7 +20988,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>21</v>
@@ -21080,7 +21080,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>101</v>
@@ -21172,7 +21172,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>108</v>
@@ -21264,10 +21264,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>49</v>
@@ -21356,7 +21356,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>62</v>
@@ -21448,7 +21448,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>21</v>
@@ -21540,7 +21540,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>21</v>
@@ -21632,7 +21632,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>21</v>
@@ -21724,7 +21724,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>21</v>
@@ -21816,7 +21816,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>67</v>
@@ -21908,7 +21908,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>21</v>
@@ -22000,7 +22000,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>59</v>
@@ -22092,10 +22092,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>81</v>
@@ -22184,7 +22184,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>21</v>
@@ -22276,7 +22276,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>21</v>
@@ -22368,7 +22368,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>108</v>
@@ -22460,10 +22460,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>49</v>
@@ -22552,7 +22552,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>21</v>
@@ -22644,7 +22644,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>21</v>
@@ -22736,7 +22736,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>21</v>
@@ -22745,7 +22745,7 @@
         <v>49</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F219" s="3">
         <v>25</v>
@@ -22828,7 +22828,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>21</v>
@@ -22920,13 +22920,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>55</v>
@@ -23012,7 +23012,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>108</v>
@@ -23104,10 +23104,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>49</v>
@@ -23196,7 +23196,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>21</v>
@@ -23288,7 +23288,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>21</v>
@@ -23380,7 +23380,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>62</v>
@@ -23472,7 +23472,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>21</v>
@@ -23564,7 +23564,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>21</v>
@@ -23656,7 +23656,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>21</v>
@@ -23748,7 +23748,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>21</v>
@@ -23757,7 +23757,7 @@
         <v>49</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F230" s="3">
         <v>28</v>
@@ -23840,10 +23840,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>49</v>
@@ -23932,7 +23932,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>21</v>
@@ -24024,7 +24024,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>67</v>
@@ -24116,7 +24116,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>67</v>
@@ -24208,10 +24208,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>28</v>
@@ -24300,7 +24300,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>21</v>
@@ -24392,10 +24392,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>49</v>
@@ -24484,7 +24484,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>62</v>
@@ -24576,10 +24576,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>31</v>
@@ -24668,7 +24668,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>21</v>
@@ -24760,7 +24760,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>21</v>
@@ -24852,10 +24852,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>81</v>
@@ -24944,7 +24944,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>21</v>
@@ -25036,7 +25036,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>21</v>
@@ -25128,7 +25128,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>21</v>
@@ -25220,7 +25220,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>21</v>
@@ -25312,7 +25312,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>21</v>
@@ -25404,7 +25404,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>62</v>
@@ -25496,7 +25496,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>108</v>
@@ -25588,7 +25588,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>21</v>
@@ -25680,16 +25680,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F251" s="3">
         <v>22</v>
@@ -25772,10 +25772,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>28</v>
@@ -25864,7 +25864,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>21</v>
@@ -25956,7 +25956,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>21</v>
@@ -26048,16 +26048,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F255" s="3">
         <v>22</v>
@@ -26140,7 +26140,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>47</v>
@@ -26232,7 +26232,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>21</v>
@@ -26324,7 +26324,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>21</v>
@@ -26416,7 +26416,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>69</v>
@@ -26508,7 +26508,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>21</v>
@@ -26600,10 +26600,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>49</v>
@@ -26692,7 +26692,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>21</v>
@@ -26784,7 +26784,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>21</v>
@@ -26876,7 +26876,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>21</v>
@@ -26968,7 +26968,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>21</v>
@@ -27060,7 +27060,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>21</v>
@@ -27069,7 +27069,7 @@
         <v>49</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F266" s="3">
         <v>31</v>
@@ -27152,7 +27152,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>69</v>
@@ -27244,7 +27244,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>21</v>
@@ -27336,7 +27336,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>21</v>
@@ -27428,7 +27428,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>69</v>
@@ -27520,7 +27520,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>21</v>
@@ -27612,7 +27612,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>21</v>
@@ -27621,7 +27621,7 @@
         <v>49</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F272" s="3">
         <v>25</v>
@@ -27704,7 +27704,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>69</v>
@@ -27796,7 +27796,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>101</v>
@@ -27805,7 +27805,7 @@
         <v>49</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F274" s="3">
         <v>29</v>
@@ -27888,7 +27888,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>108</v>
@@ -27980,7 +27980,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>59</v>
@@ -28072,7 +28072,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>21</v>
@@ -28164,7 +28164,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>21</v>
@@ -28256,10 +28256,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>31</v>
@@ -28348,7 +28348,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>21</v>
@@ -28440,16 +28440,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F281" s="3">
         <v>23</v>
@@ -28532,7 +28532,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>21</v>
@@ -28624,7 +28624,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>108</v>
@@ -28633,7 +28633,7 @@
         <v>31</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F283" s="3">
         <v>28</v>
@@ -28716,7 +28716,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>54</v>
@@ -28808,7 +28808,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>21</v>
@@ -28900,7 +28900,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>21</v>
@@ -28992,7 +28992,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>108</v>
@@ -29001,7 +29001,7 @@
         <v>28</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F287" s="3">
         <v>25</v>
@@ -29084,7 +29084,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>21</v>
@@ -29176,7 +29176,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>21</v>
@@ -29268,7 +29268,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>21</v>
@@ -29360,7 +29360,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>69</v>
@@ -29452,7 +29452,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>69</v>
@@ -29544,7 +29544,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>21</v>
@@ -29636,7 +29636,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>77</v>
@@ -29728,7 +29728,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>21</v>
@@ -29820,7 +29820,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>21</v>
@@ -29912,7 +29912,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>104</v>
@@ -30004,7 +30004,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>108</v>
@@ -30096,7 +30096,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>62</v>
@@ -30188,7 +30188,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>21</v>
@@ -30280,7 +30280,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>108</v>
@@ -30372,10 +30372,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>81</v>
@@ -30464,13 +30464,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>45</v>
@@ -30556,7 +30556,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>21</v>
@@ -30565,7 +30565,7 @@
         <v>49</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F304" s="3">
         <v>26</v>
@@ -30648,10 +30648,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>28</v>
@@ -30740,7 +30740,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>77</v>
@@ -30832,7 +30832,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>21</v>
@@ -30924,7 +30924,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>21</v>
@@ -31016,7 +31016,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>21</v>
@@ -31108,13 +31108,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>57</v>
@@ -31200,13 +31200,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>43</v>
@@ -31292,7 +31292,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>69</v>
@@ -31384,7 +31384,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>108</v>
@@ -31476,7 +31476,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>21</v>
@@ -31568,7 +31568,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>21</v>
@@ -31660,7 +31660,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>69</v>
@@ -31758,7 +31758,7 @@
         <v>21</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>57</v>
@@ -31844,7 +31844,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>21</v>
@@ -31936,7 +31936,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>21</v>
@@ -31945,7 +31945,7 @@
         <v>22</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F319" s="3">
         <v>21</v>
@@ -32028,10 +32028,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>31</v>
@@ -32120,7 +32120,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>21</v>
@@ -32212,7 +32212,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>21</v>
@@ -32304,7 +32304,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>21</v>
@@ -32313,7 +32313,7 @@
         <v>28</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F323" s="3">
         <v>23</v>
@@ -32396,7 +32396,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>21</v>
@@ -32488,7 +32488,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>62</v>
@@ -32580,7 +32580,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>21</v>
@@ -32672,7 +32672,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>108</v>
@@ -32764,7 +32764,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>21</v>
@@ -32856,10 +32856,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>51</v>
@@ -32948,7 +32948,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>21</v>
@@ -33040,7 +33040,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>62</v>
@@ -33132,7 +33132,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>21</v>
@@ -33224,7 +33224,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>59</v>
@@ -33316,7 +33316,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>21</v>
@@ -33408,10 +33408,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>81</v>
@@ -33500,7 +33500,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>21</v>
@@ -33592,7 +33592,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>21</v>
@@ -33684,7 +33684,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>21</v>
@@ -33776,7 +33776,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>67</v>
@@ -33868,7 +33868,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>21</v>
@@ -33960,7 +33960,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>21</v>
@@ -33969,7 +33969,7 @@
         <v>51</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F341" s="3">
         <v>29</v>
@@ -34052,7 +34052,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>21</v>
@@ -34061,7 +34061,7 @@
         <v>28</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F342" s="3">
         <v>22</v>
@@ -34144,7 +34144,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>59</v>
@@ -34236,7 +34236,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>21</v>
@@ -34328,7 +34328,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>21</v>
@@ -34337,7 +34337,7 @@
         <v>51</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F345" s="3">
         <v>29</v>
@@ -34420,7 +34420,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>67</v>
@@ -34512,7 +34512,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>54</v>
@@ -34604,7 +34604,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>21</v>
@@ -34613,7 +34613,7 @@
         <v>31</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F348" s="3">
         <v>29</v>
@@ -34696,7 +34696,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>21</v>
@@ -34788,10 +34788,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>31</v>
@@ -34880,7 +34880,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>21</v>
@@ -34889,7 +34889,7 @@
         <v>22</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F351" s="3">
         <v>33</v>
@@ -34972,7 +34972,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>54</v>
@@ -34981,7 +34981,7 @@
         <v>49</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F352" s="3">
         <v>30</v>
@@ -35064,7 +35064,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>21</v>
@@ -35156,7 +35156,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>21</v>
@@ -35248,7 +35248,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>62</v>
@@ -35257,7 +35257,7 @@
         <v>49</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F355" s="3">
         <v>26</v>
@@ -35340,7 +35340,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>21</v>
@@ -35432,10 +35432,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>28</v>
@@ -35524,10 +35524,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>31</v>
@@ -35616,7 +35616,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>21</v>
@@ -35708,13 +35708,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>57</v>
@@ -35800,7 +35800,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>21</v>
@@ -35892,7 +35892,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>21</v>
@@ -35984,7 +35984,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>21</v>
@@ -36076,7 +36076,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>21</v>
@@ -36168,7 +36168,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>21</v>
@@ -36260,10 +36260,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>49</v>
@@ -36352,7 +36352,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>21</v>
@@ -36444,7 +36444,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>21</v>
@@ -36536,10 +36536,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>81</v>
@@ -36628,7 +36628,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>21</v>
@@ -36720,7 +36720,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>21</v>
@@ -36812,7 +36812,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>62</v>
@@ -36904,7 +36904,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>59</v>
@@ -36996,7 +36996,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>21</v>
@@ -37088,7 +37088,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>77</v>
@@ -37180,7 +37180,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>21</v>
@@ -37272,13 +37272,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>84</v>
@@ -37364,10 +37364,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>49</v>
@@ -37456,7 +37456,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>69</v>
@@ -37548,10 +37548,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>49</v>
@@ -37640,7 +37640,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>108</v>
@@ -37732,7 +37732,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>21</v>
@@ -37741,7 +37741,7 @@
         <v>51</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F382" s="3">
         <v>18</v>
@@ -37824,7 +37824,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>21</v>
@@ -37916,7 +37916,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>21</v>
@@ -37925,7 +37925,7 @@
         <v>51</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F384" s="3">
         <v>18</v>
@@ -38008,7 +38008,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>67</v>
@@ -38100,7 +38100,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>21</v>
@@ -38192,7 +38192,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>21</v>
@@ -38284,13 +38284,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>84</v>
@@ -38376,16 +38376,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F389" s="3">
         <v>25</v>
@@ -38468,7 +38468,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>21</v>
@@ -38560,7 +38560,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>21</v>
@@ -38652,7 +38652,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>21</v>
@@ -38744,7 +38744,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>21</v>
@@ -38836,10 +38836,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>22</v>
@@ -38928,7 +38928,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>21</v>
@@ -39020,7 +39020,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>21</v>
@@ -39112,10 +39112,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>28</v>
@@ -39204,7 +39204,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>21</v>
@@ -39296,7 +39296,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>21</v>
@@ -39388,7 +39388,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>21</v>
@@ -39480,7 +39480,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>21</v>
@@ -39572,7 +39572,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>21</v>
@@ -39664,13 +39664,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>92</v>
@@ -39756,7 +39756,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>21</v>
@@ -39848,7 +39848,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>21</v>
@@ -39940,10 +39940,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>28</v>
@@ -40032,7 +40032,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>108</v>
@@ -40124,7 +40124,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>104</v>
@@ -40216,10 +40216,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>51</v>
@@ -40308,7 +40308,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>21</v>
@@ -40400,7 +40400,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>21</v>
@@ -40492,7 +40492,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>54</v>
@@ -40584,7 +40584,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>59</v>
@@ -40676,7 +40676,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>21</v>
@@ -40768,10 +40768,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>49</v>
@@ -40860,7 +40860,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>21</v>
@@ -40952,10 +40952,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>81</v>
@@ -41044,7 +41044,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>21</v>
@@ -41136,10 +41136,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>49</v>
@@ -41228,7 +41228,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>21</v>
@@ -41320,7 +41320,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>21</v>
@@ -41412,7 +41412,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>21</v>
@@ -41504,7 +41504,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>21</v>
@@ -41596,13 +41596,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>32</v>
@@ -41688,7 +41688,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>21</v>
@@ -41780,7 +41780,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>62</v>
@@ -41872,13 +41872,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>60</v>
@@ -41964,7 +41964,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>62</v>
@@ -42056,7 +42056,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>21</v>
@@ -42148,10 +42148,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>81</v>
@@ -42240,7 +42240,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>21</v>
@@ -42332,10 +42332,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>28</v>
@@ -42424,7 +42424,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>104</v>
@@ -42516,7 +42516,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>21</v>
@@ -42608,7 +42608,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>21</v>
@@ -42700,7 +42700,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>21</v>
@@ -42709,7 +42709,7 @@
         <v>51</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F436" s="3">
         <v>24</v>
@@ -42792,7 +42792,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>21</v>
@@ -42884,10 +42884,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>49</v>
@@ -42976,7 +42976,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>21</v>
@@ -43068,7 +43068,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>21</v>
@@ -43160,7 +43160,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>21</v>
@@ -43252,7 +43252,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>21</v>
@@ -43261,7 +43261,7 @@
         <v>49</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F442" s="3">
         <v>22</v>
@@ -43344,7 +43344,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>21</v>
@@ -43436,7 +43436,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>21</v>
@@ -43528,7 +43528,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>21</v>
@@ -43620,7 +43620,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>21</v>
@@ -43712,7 +43712,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>67</v>
@@ -43804,7 +43804,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>62</v>
@@ -43896,7 +43896,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>21</v>
@@ -43988,7 +43988,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>21</v>
@@ -43997,7 +43997,7 @@
         <v>22</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F450" s="3">
         <v>22</v>
@@ -44080,7 +44080,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>21</v>
@@ -44172,7 +44172,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>59</v>
@@ -44264,7 +44264,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>21</v>
@@ -44356,7 +44356,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>21</v>
@@ -44448,7 +44448,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>21</v>
@@ -44540,7 +44540,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>21</v>
@@ -44632,7 +44632,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>21</v>
@@ -44724,7 +44724,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>21</v>
@@ -44816,7 +44816,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>21</v>
@@ -44908,7 +44908,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>21</v>
@@ -45000,7 +45000,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>21</v>
@@ -45092,7 +45092,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>67</v>
@@ -45184,13 +45184,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>60</v>
@@ -45276,7 +45276,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>21</v>
@@ -45368,7 +45368,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>21</v>
@@ -45377,7 +45377,7 @@
         <v>28</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F465" s="3">
         <v>21</v>
@@ -45460,10 +45460,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>31</v>
@@ -45552,7 +45552,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>21</v>
@@ -45644,7 +45644,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>21</v>
@@ -45653,7 +45653,7 @@
         <v>28</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F468" s="3">
         <v>24</v>
@@ -45736,7 +45736,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>21</v>
@@ -45828,7 +45828,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>21</v>
@@ -45920,7 +45920,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>108</v>
@@ -46012,7 +46012,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>69</v>
@@ -46104,10 +46104,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>49</v>
@@ -46196,7 +46196,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>21</v>
@@ -46288,10 +46288,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>51</v>
@@ -46380,7 +46380,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>69</v>
@@ -46472,7 +46472,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>21</v>
@@ -46564,7 +46564,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>21</v>
@@ -46656,7 +46656,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>21</v>
@@ -46665,7 +46665,7 @@
         <v>51</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F479" s="3">
         <v>21</v>
@@ -46748,10 +46748,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>28</v>
@@ -46840,7 +46840,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>21</v>
@@ -46932,7 +46932,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>21</v>
@@ -47024,7 +47024,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>69</v>
@@ -47116,7 +47116,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>21</v>
@@ -47208,7 +47208,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>21</v>
@@ -47300,7 +47300,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>21</v>
@@ -47392,7 +47392,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>21</v>
@@ -47484,7 +47484,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>21</v>
@@ -47576,7 +47576,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>21</v>
@@ -47668,7 +47668,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>21</v>
@@ -47760,7 +47760,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>62</v>
@@ -47852,7 +47852,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>69</v>
@@ -47944,7 +47944,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>21</v>
@@ -48036,16 +48036,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F494" s="3">
         <v>19</v>
@@ -48128,7 +48128,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>21</v>
@@ -48220,7 +48220,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>21</v>
@@ -48312,7 +48312,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>59</v>
@@ -48404,7 +48404,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>21</v>
@@ -48496,7 +48496,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>21</v>
@@ -48588,7 +48588,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>21</v>
@@ -48597,7 +48597,7 @@
         <v>31</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F500" s="3">
         <v>18</v>
